--- a/Projects/BATRU/Data/p4_template.xlsx
+++ b/Projects/BATRU/Data/p4_template.xlsx
@@ -61,7 +61,7 @@
     <t>GC_A_TN_PHL - Vogue_Unique (1).jpg</t>
   </si>
   <si>
-    <t>ALL</t>
+    <t>All</t>
   </si>
   <si>
     <t>2. На выходе</t>
@@ -329,7 +329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +340,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -361,19 +365,19 @@
   </sheetPr>
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -422,13 +426,13 @@
       <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -451,13 +455,13 @@
       <c r="F3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -480,13 +484,13 @@
       <c r="F4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -509,13 +513,13 @@
       <c r="F5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -538,13 +542,13 @@
       <c r="F6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -567,13 +571,13 @@
       <c r="F7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -596,13 +600,13 @@
       <c r="F8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -625,13 +629,13 @@
       <c r="F9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -654,13 +658,13 @@
       <c r="F10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -683,13 +687,13 @@
       <c r="F11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -712,13 +716,13 @@
       <c r="F12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -741,13 +745,13 @@
       <c r="F13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -770,13 +774,13 @@
       <c r="F14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -799,13 +803,13 @@
       <c r="F15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -828,13 +832,13 @@
       <c r="F16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -857,13 +861,13 @@
       <c r="F17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -886,13 +890,13 @@
       <c r="F18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -915,13 +919,13 @@
       <c r="F19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -944,13 +948,13 @@
       <c r="F20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -973,13 +977,13 @@
       <c r="F21" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1002,13 +1006,13 @@
       <c r="F22" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1031,13 +1035,13 @@
       <c r="F23" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1060,13 +1064,13 @@
       <c r="F24" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1089,13 +1093,13 @@
       <c r="F25" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1118,13 +1122,13 @@
       <c r="F26" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1147,13 +1151,13 @@
       <c r="F27" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1176,13 +1180,13 @@
       <c r="F28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1205,13 +1209,13 @@
       <c r="F29" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1234,13 +1238,13 @@
       <c r="F30" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1263,13 +1267,13 @@
       <c r="F31" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1292,13 +1296,13 @@
       <c r="F32" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1321,13 +1325,13 @@
       <c r="F33" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1350,13 +1354,13 @@
       <c r="F34" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1379,13 +1383,13 @@
       <c r="F35" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1408,13 +1412,13 @@
       <c r="F36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1437,13 +1441,13 @@
       <c r="F37" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1466,13 +1470,13 @@
       <c r="F38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1495,13 +1499,13 @@
       <c r="F39" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1524,13 +1528,13 @@
       <c r="F40" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1553,13 +1557,13 @@
       <c r="F41" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1582,13 +1586,13 @@
       <c r="F42" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1611,13 +1615,13 @@
       <c r="F43" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1640,13 +1644,13 @@
       <c r="F44" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1669,13 +1673,13 @@
       <c r="F45" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1698,13 +1702,13 @@
       <c r="F46" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1727,13 +1731,13 @@
       <c r="F47" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1756,13 +1760,13 @@
       <c r="F48" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1785,13 +1789,13 @@
       <c r="F49" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1814,13 +1818,13 @@
       <c r="F50" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1843,13 +1847,13 @@
       <c r="F51" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1872,13 +1876,13 @@
       <c r="F52" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1901,13 +1905,13 @@
       <c r="F53" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1930,13 +1934,13 @@
       <c r="F54" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1959,13 +1963,13 @@
       <c r="F55" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="I55" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1988,13 +1992,13 @@
       <c r="F56" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="0" t="s">
+      <c r="I56" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2017,13 +2021,13 @@
       <c r="F57" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="I57" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2046,13 +2050,13 @@
       <c r="F58" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2075,13 +2079,13 @@
       <c r="F59" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2104,13 +2108,13 @@
       <c r="F60" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="0" t="s">
+      <c r="I60" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2133,13 +2137,13 @@
       <c r="F61" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="0" t="s">
+      <c r="I61" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2162,13 +2166,13 @@
       <c r="F62" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2191,13 +2195,13 @@
       <c r="F63" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2220,13 +2224,13 @@
       <c r="F64" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="0" t="s">
+      <c r="I64" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2249,13 +2253,13 @@
       <c r="F65" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="0" t="s">
+      <c r="I65" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2278,13 +2282,13 @@
       <c r="F66" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="0" t="s">
+      <c r="I66" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2307,13 +2311,13 @@
       <c r="F67" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="0" t="s">
+      <c r="I67" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2336,13 +2340,13 @@
       <c r="F68" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I68" s="0" t="s">
+      <c r="I68" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2365,13 +2369,13 @@
       <c r="F69" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="0" t="s">
+      <c r="I69" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2394,13 +2398,13 @@
       <c r="F70" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="0" t="s">
+      <c r="I70" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2423,13 +2427,13 @@
       <c r="F71" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="0" t="s">
+      <c r="I71" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2452,13 +2456,13 @@
       <c r="F72" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="0" t="s">
+      <c r="I72" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2481,13 +2485,13 @@
       <c r="F73" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="0" t="s">
+      <c r="I73" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2510,13 +2514,13 @@
       <c r="F74" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="0" t="s">
+      <c r="I74" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2539,13 +2543,13 @@
       <c r="F75" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="0" t="s">
+      <c r="I75" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2568,13 +2572,13 @@
       <c r="F76" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="0" t="s">
+      <c r="I76" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2597,13 +2601,13 @@
       <c r="F77" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I77" s="0" t="s">
+      <c r="I77" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2626,13 +2630,13 @@
       <c r="F78" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="0" t="s">
+      <c r="I78" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2655,13 +2659,13 @@
       <c r="F79" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="0" t="s">
+      <c r="I79" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2684,13 +2688,13 @@
       <c r="F80" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="I80" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2713,13 +2717,13 @@
       <c r="F81" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="0" t="s">
+      <c r="I81" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2742,13 +2746,13 @@
       <c r="F82" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="0" t="s">
+      <c r="I82" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2771,13 +2775,13 @@
       <c r="F83" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="0" t="s">
+      <c r="I83" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2800,13 +2804,13 @@
       <c r="F84" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="0" t="s">
+      <c r="I84" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2829,13 +2833,13 @@
       <c r="F85" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="0" t="s">
+      <c r="I85" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2858,13 +2862,13 @@
       <c r="F86" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I86" s="0" t="s">
+      <c r="I86" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2887,13 +2891,13 @@
       <c r="F87" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="G87" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="0" t="s">
+      <c r="I87" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2916,13 +2920,13 @@
       <c r="F88" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="0" t="s">
+      <c r="I88" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2945,13 +2949,13 @@
       <c r="F89" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="0" t="s">
+      <c r="I89" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2974,13 +2978,13 @@
       <c r="F90" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I90" s="0" t="s">
+      <c r="I90" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3003,13 +3007,13 @@
       <c r="F91" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="G91" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I91" s="0" t="s">
+      <c r="I91" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3032,13 +3036,13 @@
       <c r="F92" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I92" s="0" t="s">
+      <c r="I92" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3061,13 +3065,13 @@
       <c r="F93" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I93" s="0" t="s">
+      <c r="I93" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3090,13 +3094,13 @@
       <c r="F94" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I94" s="0" t="s">
+      <c r="I94" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3119,13 +3123,13 @@
       <c r="F95" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I95" s="0" t="s">
+      <c r="I95" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3148,13 +3152,13 @@
       <c r="F96" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="G96" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I96" s="0" t="s">
+      <c r="I96" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3177,13 +3181,13 @@
       <c r="F97" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I97" s="0" t="s">
+      <c r="I97" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3206,13 +3210,13 @@
       <c r="F98" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I98" s="0" t="s">
+      <c r="I98" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3235,13 +3239,13 @@
       <c r="F99" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I99" s="0" t="s">
+      <c r="I99" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3264,13 +3268,13 @@
       <c r="F100" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I100" s="0" t="s">
+      <c r="I100" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3299,7 +3303,7 @@
       <c r="H101" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I101" s="0" t="s">
+      <c r="I101" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3328,7 +3332,7 @@
       <c r="H102" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I102" s="0" t="s">
+      <c r="I102" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3357,7 +3361,7 @@
       <c r="H103" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I103" s="0" t="s">
+      <c r="I103" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3386,7 +3390,7 @@
       <c r="H104" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I104" s="0" t="s">
+      <c r="I104" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3415,7 +3419,7 @@
       <c r="H105" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I105" s="0" t="s">
+      <c r="I105" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3444,7 +3448,7 @@
       <c r="H106" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I106" s="0" t="s">
+      <c r="I106" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3473,7 +3477,7 @@
       <c r="H107" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I107" s="0" t="s">
+      <c r="I107" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3502,7 +3506,7 @@
       <c r="H108" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I108" s="0" t="s">
+      <c r="I108" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3531,7 +3535,7 @@
       <c r="H109" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I109" s="0" t="s">
+      <c r="I109" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3560,7 +3564,7 @@
       <c r="H110" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I110" s="0" t="s">
+      <c r="I110" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3589,7 +3593,7 @@
       <c r="H111" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I111" s="0" t="s">
+      <c r="I111" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3618,7 +3622,7 @@
       <c r="H112" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I112" s="0" t="s">
+      <c r="I112" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3647,7 +3651,7 @@
       <c r="H113" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I113" s="0" t="s">
+      <c r="I113" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3676,7 +3680,7 @@
       <c r="H114" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I114" s="0" t="s">
+      <c r="I114" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3705,7 +3709,7 @@
       <c r="H115" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I115" s="0" t="s">
+      <c r="I115" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3734,7 +3738,7 @@
       <c r="H116" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I116" s="0" t="s">
+      <c r="I116" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3763,7 +3767,7 @@
       <c r="H117" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I117" s="0" t="s">
+      <c r="I117" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3792,7 +3796,7 @@
       <c r="H118" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I118" s="0" t="s">
+      <c r="I118" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3821,7 +3825,7 @@
       <c r="H119" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I119" s="0" t="s">
+      <c r="I119" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3850,7 +3854,7 @@
       <c r="H120" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I120" s="0" t="s">
+      <c r="I120" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3879,7 +3883,7 @@
       <c r="H121" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I121" s="0" t="s">
+      <c r="I121" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3908,7 +3912,7 @@
       <c r="H122" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I122" s="0" t="s">
+      <c r="I122" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3937,7 +3941,7 @@
       <c r="H123" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I123" s="0" t="s">
+      <c r="I123" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3966,7 +3970,7 @@
       <c r="H124" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I124" s="0" t="s">
+      <c r="I124" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3995,7 +3999,7 @@
       <c r="H125" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I125" s="0" t="s">
+      <c r="I125" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4024,7 +4028,7 @@
       <c r="H126" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I126" s="0" t="s">
+      <c r="I126" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4053,7 +4057,7 @@
       <c r="H127" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I127" s="0" t="s">
+      <c r="I127" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4082,7 +4086,7 @@
       <c r="H128" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I128" s="0" t="s">
+      <c r="I128" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4111,7 +4115,7 @@
       <c r="H129" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I129" s="0" t="s">
+      <c r="I129" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4140,7 +4144,7 @@
       <c r="H130" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I130" s="0" t="s">
+      <c r="I130" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4169,7 +4173,7 @@
       <c r="H131" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I131" s="0" t="s">
+      <c r="I131" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4198,7 +4202,7 @@
       <c r="H132" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I132" s="0" t="s">
+      <c r="I132" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4227,7 +4231,7 @@
       <c r="H133" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I133" s="0" t="s">
+      <c r="I133" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4256,7 +4260,7 @@
       <c r="H134" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I134" s="0" t="s">
+      <c r="I134" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4285,7 +4289,7 @@
       <c r="H135" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I135" s="0" t="s">
+      <c r="I135" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4314,7 +4318,7 @@
       <c r="H136" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I136" s="0" t="s">
+      <c r="I136" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4343,7 +4347,7 @@
       <c r="H137" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I137" s="0" t="s">
+      <c r="I137" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4372,7 +4376,7 @@
       <c r="H138" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I138" s="0" t="s">
+      <c r="I138" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4401,7 +4405,7 @@
       <c r="H139" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I139" s="0" t="s">
+      <c r="I139" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4430,7 +4434,7 @@
       <c r="H140" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I140" s="0" t="s">
+      <c r="I140" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4459,7 +4463,7 @@
       <c r="H141" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I141" s="0" t="s">
+      <c r="I141" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4488,7 +4492,7 @@
       <c r="H142" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I142" s="0" t="s">
+      <c r="I142" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4517,7 +4521,7 @@
       <c r="H143" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I143" s="0" t="s">
+      <c r="I143" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4546,7 +4550,7 @@
       <c r="H144" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I144" s="0" t="s">
+      <c r="I144" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4575,7 +4579,7 @@
       <c r="H145" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I145" s="0" t="s">
+      <c r="I145" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Projects/BATRU/Data/p4_template.xlsx
+++ b/Projects/BATRU/Data/p4_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="71">
   <si>
     <t>L0 - SET</t>
   </si>
@@ -61,7 +61,7 @@
     <t>GC_A_TN_PHL - Vogue_Unique (1).jpg</t>
   </si>
   <si>
-    <t>All</t>
+    <t>ALL</t>
   </si>
   <si>
     <t>2. На выходе</t>
@@ -169,9 +169,6 @@
     <t>GC_A_TN_Shelf Strip for SAS - Kent_Amber.jpg</t>
   </si>
   <si>
-    <t>Asp. Premium +</t>
-  </si>
-  <si>
     <t>GC_A_TN_SAS Frame</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
   </si>
   <si>
     <t>GC_A_TN_SAS Frame - RTM_International (1).jpg, GC_A_TN_SAS Frame - RTM_International (2).jpg, GC_A_TN_SAS Frame - RTM_International (3).jpg, GC_A_TN_SAS Frame - RTM_International (4).jpg, GC_A_TN_SAS Frame - RTM_International (5).jpg, GC_A_TN_SAS Frame - RTM_International (6).jpg, GC_A_TN_SAS Frame - RTM_International (7).jpg</t>
-  </si>
-  <si>
-    <t>VFM -</t>
   </si>
   <si>
     <t>GC_A_TN_Carboard SAS for BWD - RTM_International</t>
@@ -365,19 +359,19 @@
   </sheetPr>
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M137" activeCellId="0" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3297,8 +3291,8 @@
       <c r="F101" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G101" s="0" t="s">
-        <v>49</v>
+      <c r="G101" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>14</v>
@@ -3318,16 +3312,16 @@
         <v>9</v>
       </c>
       <c r="D102" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="F102" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>49</v>
+      <c r="G102" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>14</v>
@@ -3347,16 +3341,16 @@
         <v>31</v>
       </c>
       <c r="D103" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="F103" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>49</v>
+      <c r="G103" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>14</v>
@@ -3376,16 +3370,16 @@
         <v>31</v>
       </c>
       <c r="D104" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="F104" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F104" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G104" s="0" t="s">
-        <v>49</v>
+      <c r="G104" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>14</v>
@@ -3405,16 +3399,16 @@
         <v>34</v>
       </c>
       <c r="D105" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="F105" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G105" s="0" t="s">
-        <v>49</v>
+      <c r="G105" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>14</v>
@@ -3434,16 +3428,16 @@
         <v>34</v>
       </c>
       <c r="D106" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="F106" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F106" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>49</v>
+      <c r="G106" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>14</v>
@@ -3471,8 +3465,8 @@
       <c r="F107" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G107" s="0" t="s">
-        <v>49</v>
+      <c r="G107" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>14</v>
@@ -3492,16 +3486,16 @@
         <v>35</v>
       </c>
       <c r="D108" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="F108" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F108" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>49</v>
+      <c r="G108" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>14</v>
@@ -3529,8 +3523,8 @@
       <c r="F109" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G109" s="0" t="s">
-        <v>49</v>
+      <c r="G109" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>14</v>
@@ -3550,16 +3544,16 @@
         <v>36</v>
       </c>
       <c r="D110" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="F110" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F110" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G110" s="0" t="s">
-        <v>49</v>
+      <c r="G110" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>14</v>
@@ -3579,16 +3573,16 @@
         <v>37</v>
       </c>
       <c r="D111" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="F111" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F111" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>49</v>
+      <c r="G111" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>14</v>
@@ -3608,16 +3602,16 @@
         <v>37</v>
       </c>
       <c r="D112" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="F112" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F112" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>49</v>
+      <c r="G112" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>14</v>
@@ -3637,16 +3631,16 @@
         <v>38</v>
       </c>
       <c r="D113" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="F113" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F113" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>49</v>
+      <c r="G113" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>14</v>
@@ -3666,16 +3660,16 @@
         <v>38</v>
       </c>
       <c r="D114" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="F114" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F114" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>49</v>
+      <c r="G114" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>14</v>
@@ -3703,8 +3697,8 @@
       <c r="F115" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G115" s="0" t="s">
-        <v>49</v>
+      <c r="G115" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>14</v>
@@ -3724,16 +3718,16 @@
         <v>39</v>
       </c>
       <c r="D116" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="F116" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F116" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>49</v>
+      <c r="G116" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>14</v>
@@ -3761,8 +3755,8 @@
       <c r="F117" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G117" s="0" t="s">
-        <v>49</v>
+      <c r="G117" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>14</v>
@@ -3782,16 +3776,16 @@
         <v>40</v>
       </c>
       <c r="D118" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="F118" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F118" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>49</v>
+      <c r="G118" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>14</v>
@@ -3811,16 +3805,16 @@
         <v>41</v>
       </c>
       <c r="D119" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E119" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="F119" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F119" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>49</v>
+      <c r="G119" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>14</v>
@@ -3840,16 +3834,16 @@
         <v>41</v>
       </c>
       <c r="D120" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="F120" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F120" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>49</v>
+      <c r="G120" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>14</v>
@@ -3869,16 +3863,16 @@
         <v>42</v>
       </c>
       <c r="D121" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="F121" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F121" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>49</v>
+      <c r="G121" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>14</v>
@@ -3898,16 +3892,16 @@
         <v>42</v>
       </c>
       <c r="D122" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="F122" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F122" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>49</v>
+      <c r="G122" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>14</v>
@@ -3927,16 +3921,16 @@
         <v>9</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E123" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F123" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F123" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>64</v>
+      <c r="G123" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>14</v>
@@ -3956,16 +3950,16 @@
         <v>31</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G124" s="0" t="s">
         <v>64</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>14</v>
@@ -3988,13 +3982,13 @@
         <v>46</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>14</v>
@@ -4014,16 +4008,16 @@
         <v>31</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>14</v>
@@ -4043,16 +4037,16 @@
         <v>34</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G127" s="0" t="s">
         <v>64</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>14</v>
@@ -4075,13 +4069,13 @@
         <v>46</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>14</v>
@@ -4101,16 +4095,16 @@
         <v>34</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>14</v>
@@ -4130,16 +4124,16 @@
         <v>35</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E130" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F130" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F130" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>64</v>
+      <c r="G130" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>14</v>
@@ -4159,16 +4153,16 @@
         <v>36</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E131" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F131" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F131" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>64</v>
+      <c r="G131" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>14</v>
@@ -4191,13 +4185,13 @@
         <v>46</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>14</v>
@@ -4217,16 +4211,16 @@
         <v>37</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>14</v>
@@ -4246,16 +4240,16 @@
         <v>37</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>14</v>
@@ -4278,13 +4272,13 @@
         <v>46</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G135" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>14</v>
@@ -4304,16 +4298,16 @@
         <v>38</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>14</v>
@@ -4333,16 +4327,16 @@
         <v>38</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G137" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>14</v>
@@ -4362,16 +4356,16 @@
         <v>39</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F138" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F138" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>64</v>
+      <c r="G138" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>14</v>
@@ -4391,16 +4385,16 @@
         <v>40</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E139" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F139" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F139" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>64</v>
+      <c r="G139" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>14</v>
@@ -4423,13 +4417,13 @@
         <v>46</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>14</v>
@@ -4449,16 +4443,16 @@
         <v>41</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G141" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>14</v>
@@ -4478,16 +4472,16 @@
         <v>41</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G142" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>14</v>
@@ -4510,13 +4504,13 @@
         <v>46</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G143" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>14</v>
@@ -4536,16 +4530,16 @@
         <v>42</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G144" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>14</v>
@@ -4565,16 +4559,16 @@
         <v>42</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G145" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>14</v>

--- a/Projects/BATRU/Data/p4_template.xlsx
+++ b/Projects/BATRU/Data/p4_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="76">
   <si>
     <t xml:space="preserve">Filter stores by 'attribute 3'</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">GC_A_TN_Shelf Strip_General_-_Rest</t>
   </si>
   <si>
-    <t xml:space="preserve">GC_A_TN_Shelf Strip_General_-_Rest_1.jpg, GC_A_TN_Shelf Strip_General_-_Rest_2.jpg, GC_A_TN_Shelf Strip_General_-_Rest_3.jpg, GC_A_TN_Shelf Strip_General_-_Rest_4.jpg</t>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip_General_-_Rest_1.jpg, GC_A_TN_Shelf Strip_General_-_Rest_2.jpg, GC_A_TN_Shelf Strip_General_-_Rest_3.jpg, GC_A_TN_Shelf Strip_General_-_Rest_4.jpg, GC_A_TN_Shelf Strip_General_-_Rest_5.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">GC_A_TN_Shelf Strip_General_-_Rtm</t>
@@ -215,6 +215,33 @@
   </si>
   <si>
     <t xml:space="preserve">GC_A_TN_PHL_-_Kent_Sunset_1.jpg, GC_A_TN_PHL_-_Kent_Sunset_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_ DSP BWD Flaps 8*12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip_General_-_Glo_New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip_General_-_Glo_1.jpg, GC_A_TN_Shelf Strip_General_-_Glo_New_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLO_SAS_Patch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLO_SAS_Patch_-_Glo_New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLO_SAS_Patch_-_Glo_New_1.jpg, GLO_SAS_Patch_-_Glo_New_2.jpg, GLO_SAS_Patch_-_Glo_New_3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS_-_Glo_New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS_-_Glo_New_1.jpg, GC_A_TN_Shelf Strip for SAS_-_Glo_New_2.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">NGP+</t>
@@ -413,23 +440,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.6279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.1627906976744"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.9209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.4418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="166.627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4697,7 +4716,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -4724,85 +4743,85 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F166" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>8</v>
@@ -4814,7 +4833,7 @@
         <v>10</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>53</v>
@@ -4828,7 +4847,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>8</v>
@@ -4840,7 +4859,7 @@
         <v>10</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>34</v>
@@ -4854,7 +4873,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>8</v>
@@ -4866,7 +4885,7 @@
         <v>10</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>12</v>
@@ -4880,7 +4899,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>8</v>
@@ -4892,7 +4911,7 @@
         <v>10</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>53</v>
@@ -4906,7 +4925,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>8</v>
@@ -4918,21 +4937,21 @@
         <v>10</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>8</v>
@@ -4944,21 +4963,21 @@
         <v>10</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>8</v>
@@ -4970,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>53</v>
@@ -4984,7 +5003,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>8</v>
@@ -4996,7 +5015,7 @@
         <v>10</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>53</v>
@@ -5010,7 +5029,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>8</v>
@@ -5022,7 +5041,7 @@
         <v>10</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>12</v>
@@ -5036,7 +5055,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>8</v>
@@ -5048,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>53</v>
@@ -5062,7 +5081,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>8</v>
@@ -5074,7 +5093,7 @@
         <v>10</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>53</v>
@@ -5088,7 +5107,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>8</v>
@@ -5100,7 +5119,7 @@
         <v>10</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>12</v>
@@ -5114,7 +5133,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>8</v>
@@ -5126,7 +5145,7 @@
         <v>10</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>53</v>
@@ -5140,7 +5159,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>8</v>
@@ -5152,7 +5171,7 @@
         <v>10</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>53</v>
@@ -5165,8 +5184,8 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
-        <v>65</v>
+      <c r="A183" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>8</v>
@@ -5178,7 +5197,7 @@
         <v>10</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>12</v>
@@ -5192,7 +5211,7 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>8</v>
@@ -5204,21 +5223,21 @@
         <v>10</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>8</v>
@@ -5230,21 +5249,21 @@
         <v>10</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
-        <v>66</v>
+      <c r="A186" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>8</v>
@@ -5256,21 +5275,21 @@
         <v>10</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>8</v>
@@ -5285,18 +5304,18 @@
         <v>11</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>8</v>
@@ -5308,21 +5327,21 @@
         <v>10</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>8</v>
@@ -5334,21 +5353,21 @@
         <v>10</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>8</v>
@@ -5360,21 +5379,21 @@
         <v>10</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>8</v>
@@ -5389,18 +5408,18 @@
         <v>32</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>8</v>
@@ -5412,21 +5431,21 @@
         <v>10</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>8</v>
@@ -5438,21 +5457,21 @@
         <v>10</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>8</v>
@@ -5464,21 +5483,21 @@
         <v>10</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>8</v>
@@ -5490,21 +5509,21 @@
         <v>10</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>8</v>
@@ -5516,21 +5535,21 @@
         <v>10</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>8</v>
@@ -5542,21 +5561,21 @@
         <v>10</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>8</v>
@@ -5568,21 +5587,21 @@
         <v>10</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>8</v>
@@ -5594,21 +5613,21 @@
         <v>10</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>8</v>
@@ -5620,21 +5639,21 @@
         <v>10</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>8</v>
@@ -5646,21 +5665,21 @@
         <v>10</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>8</v>
@@ -5672,21 +5691,21 @@
         <v>10</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>8</v>
@@ -5698,21 +5717,21 @@
         <v>10</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>8</v>
@@ -5724,21 +5743,21 @@
         <v>10</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>8</v>
@@ -5750,21 +5769,21 @@
         <v>10</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>8</v>
@@ -5776,41 +5795,119 @@
         <v>10</v>
       </c>
       <c r="E206" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H206" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H207" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H208" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="F209" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G206" s="0" t="s">
+      <c r="G209" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H206" s="0" t="s">
+      <c r="H209" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" s="0" t="s">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G207" s="0" t="s">
+      <c r="G210" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H207" s="0" t="s">
+      <c r="H210" s="0" t="s">
         <v>59</v>
       </c>
     </row>
